--- a/xlsx/阶级斗争_intext.xlsx
+++ b/xlsx/阶级斗争_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E4%BA%9E%E6%B3%A2%E5%88%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>明尼亞波利斯</t>
+    <t>明尼亚波利斯</t>
   </si>
   <si>
     <t>政策_政策_政治_阶级斗争</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%94%A2%E6%89%8B%E6%AE%B5</t>
   </si>
   <si>
-    <t>生產手段</t>
+    <t>生产手段</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E6%B3%BD%E4%B8%9C</t>
